--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.971229114650243</v>
+        <v>6.248596550168835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4141936434031047</v>
+        <v>0.4344386436891544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1435280938964602</v>
+        <v>0.1492712847863601</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.030097817305604</v>
+        <v>7.047756373862245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4799035298698481</v>
+        <v>0.4809599034433418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.174995932491099</v>
+        <v>0.1756968217400429</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.535730882516514</v>
+        <v>9.735146024132478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3829243998895389</v>
+        <v>0.6478991761133245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1377201739511202</v>
+        <v>0.2284445137130569</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.014753712990237</v>
+        <v>9.883858657716752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790229804443302</v>
+        <v>0.6562553144504533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1743715091494638</v>
+        <v>0.229955558527832</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.804360989272796</v>
+        <v>9.439382968042162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4025236732407585</v>
+        <v>0.6288598474902205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1462332895673147</v>
+        <v>0.2217076997070341</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.581721049247011</v>
+        <v>9.738520193710805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3841552934678112</v>
+        <v>0.6481563045428285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1363668947524081</v>
+        <v>0.2284629820243711</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.681937132078322</v>
+        <v>9.706416585626336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3916283070291653</v>
+        <v>0.6455480790623217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1390339901054909</v>
+        <v>0.2276078235045843</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.248596550168835</v>
+        <v>9.755397949376897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4344386436891544</v>
+        <v>0.6476872476209334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1492712847863601</v>
+        <v>0.2273898918229215</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.025643925042225</v>
+        <v>9.721905429490512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4798621668582477</v>
+        <v>0.6446065089131738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1744967731358746</v>
+        <v>0.2262704497045997</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.047756373862245</v>
+        <v>9.862622681443819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4809599034433418</v>
+        <v>0.6540959167615371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1756968217400429</v>
+        <v>0.2294478540095546</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.556874199691354</v>
+        <v>6.091618763296601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5814204975661607</v>
+        <v>0.5348687460151761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1466317807477452</v>
+        <v>0.1409736726368126</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.870029459596902</v>
+        <v>10.89394579467242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5791762153042195</v>
+        <v>0.8137838234397108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2085580962325292</v>
+        <v>0.2840568796429324</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.962528430628951</v>
+        <v>11.32998238902527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5871148531485084</v>
+        <v>0.8535919699102884</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2104207187650233</v>
+        <v>0.2927946615395466</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.389914096463112</v>
+        <v>8.433818906745774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5432610763439671</v>
+        <v>0.6064841412003724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1733014608688531</v>
+        <v>0.1920908270383936</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.091618763296601</v>
+        <v>6.357833981289806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5348687460151761</v>
+        <v>0.5582616415148536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1409736726368126</v>
+        <v>0.1443469304819732</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.89394579467242</v>
+        <v>10.68493681324372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8137838234397108</v>
+        <v>0.7949950713677574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2840568796429324</v>
+        <v>0.2799471181982537</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.32998238902527</v>
+        <v>11.05209628461968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8535919699102884</v>
+        <v>0.8281557428784667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2927946615395466</v>
+        <v>0.2871209364446469</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.433818906745774</v>
+        <v>8.480673402151302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6064841412003724</v>
+        <v>0.6107633715902669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1920908270383936</v>
+        <v>0.1927287322095202</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.72237888352981</v>
+        <v>10.73014326197012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7983473007490306</v>
+        <v>0.7990436878436606</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2806910793284721</v>
+        <v>0.2808322997047239</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.73014326197012</v>
+        <v>10.70269404649432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7990436878436606</v>
+        <v>0.7965875784528806</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2808322997047239</v>
+        <v>0.280324735624399</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.70269404649432</v>
+        <v>10.68441779058087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7965875784528806</v>
+        <v>0.7949547165256572</v>
       </c>
       <c r="D11" t="n">
-        <v>0.280324735624399</v>
+        <v>0.2799926751592235</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.68441779058087</v>
+        <v>10.705550778938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7949547165256572</v>
+        <v>0.7968343050057585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2799926751592235</v>
+        <v>0.2803290151172996</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.735146024132478</v>
+        <v>9.738938755216518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6478991761133245</v>
+        <v>0.6481725978565964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2284445137130569</v>
+        <v>0.2284830487389865</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.943911667462501</v>
+        <v>9.945655249427364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6603912154274801</v>
+        <v>0.6605350360636062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2313666222346915</v>
+        <v>0.2314511130850644</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.439382968042162</v>
+        <v>7.830628521802191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6288598474902205</v>
+        <v>0.5307743647289441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2217076997070341</v>
+        <v>0.180773067510072</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.738520193710805</v>
+        <v>9.733445956552872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6481563045428285</v>
+        <v>0.6477644121608633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2284629820243711</v>
+        <v>0.2284020764982968</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.706416585626336</v>
+        <v>9.743863041465648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6455480790623217</v>
+        <v>0.6482287915373932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2276078235045843</v>
+        <v>0.2284354674359667</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.755397949376897</v>
+        <v>9.695911649378436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6476872476209334</v>
+        <v>0.6449838871688326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2273898918229215</v>
+        <v>0.2275532178969716</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.959923413647576</v>
+        <v>9.9440368239009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6613160927023258</v>
+        <v>0.6603777935572974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23163787905925</v>
+        <v>0.2314258263261104</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.95912650489775</v>
+        <v>9.915206284092241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6612731246838816</v>
+        <v>0.6584998669296108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2315563219901114</v>
+        <v>0.2309825986370071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.705550778938</v>
+        <v>10.773218038002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7968343050057585</v>
+        <v>0.802915942417304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2803290151172996</v>
+        <v>0.2816892267475605</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.01390305279091</v>
+        <v>11.10539127269842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.824776214623102</v>
+        <v>0.8332622789012313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2869713873402145</v>
+        <v>0.2894350131275751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.738938755216518</v>
+        <v>19.38697489831226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6481725978565964</v>
+        <v>0.6449211487072594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2284830487389865</v>
+        <v>0.2272930107819106</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.945655249427364</v>
+        <v>19.89465928677901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6605350360636062</v>
+        <v>0.6605128809749494</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2314511130850644</v>
+        <v>0.2314413647591379</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.830628521802191</v>
+        <v>17.80547120409306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5307743647289441</v>
+        <v>0.5972692359072347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.180773067510072</v>
+        <v>0.2078002926474616</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.733445956552872</v>
+        <v>19.47160130975248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6477644121608633</v>
+        <v>0.6479617138061713</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2284020764982968</v>
+        <v>0.2284492647071465</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.743863041465648</v>
+        <v>19.91633441883603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6482287915373932</v>
+        <v>0.6596161550423053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2284354674359667</v>
+        <v>0.2328944968146026</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.695911649378436</v>
+        <v>19.32293892212094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6449838871688326</v>
+        <v>0.6410057234762419</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2275532178969716</v>
+        <v>0.2263702708449914</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.9440368239009</v>
+        <v>19.90592731448759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6603777935572974</v>
+        <v>0.6609279533346903</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2314258263261104</v>
+        <v>0.2315774395152538</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.915206284092241</v>
+        <v>19.89013679739779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6584998669296108</v>
+        <v>0.6603934564179483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2309825986370071</v>
+        <v>0.2314561210302675</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.357833981289806</v>
+        <v>12.71566796257961</v>
       </c>
       <c r="C10" t="n">
         <v>0.5582616415148536</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.773218038002</v>
+        <v>21.49743533097052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.802915942417304</v>
+        <v>0.8007101853862696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2816892267475605</v>
+        <v>0.2811923208312827</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.10539127269842</v>
+        <v>22.21078254539683</v>
       </c>
       <c r="C12" t="n">
         <v>0.8332622789012313</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.445687016107938</v>
+        <v>16.89137403221588</v>
       </c>
       <c r="C13" t="n">
         <v>0.608708523525723</v>

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_test.xlsx
+++ b/Modelos em Python/7_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="12">
